--- a/CSV/timeTest/Tmeas10_anal.xlsx
+++ b/CSV/timeTest/Tmeas10_anal.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ditte\aauRepo\esd7_git\3Dprinter-BLDC-control\CSV\timeTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{197F9E71-512D-48B5-96CC-B7E053FB990A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50751ADF-9771-4E0F-B953-097C5D7B512F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{86DE83E0-484C-428B-98D4-8383F506AC34}"/>
   </bookViews>
   <sheets>
     <sheet name="Tmeas10" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2784,7 +2797,4235 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tmeas10!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Voltage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tmeas10!$C$2:$C$318</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="317"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0229E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0438000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0635000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0877000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.101079</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.121284</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.141486</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16168399999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18188399999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.202075</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.22228100000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.242478</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.26270300000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.28292400000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.30314800000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.32337600000000005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.34359600000000007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.36382800000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.38402900000000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.40423900000000007</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.42444000000000009</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.44464000000000009</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.46483500000000011</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.48503400000000013</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.50523800000000008</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.52544100000000005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.54564500000000005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.56584000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.58604299999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.60628099999999996</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.62648699999999991</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.64668199999999987</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.66688099999999984</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.68707799999999986</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.70727799999999985</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.72747699999999982</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.74770499999999984</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.76790599999999987</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.78810499999999983</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.8083079999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.82850999999999986</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.84870699999999988</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.8689039999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.88910899999999993</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.90930199999999994</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.92950099999999991</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.94972999999999996</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.96995900000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.99016100000000007</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.010364</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.030567</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.050764</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.0709660000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.0911630000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.1113570000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.1315550000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.151753</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.171953</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.1921809999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.2123789999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.2326039999999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.2528039999999998</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.2730319999999997</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.2932289999999997</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.3134269999999997</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.3336519999999996</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.3538799999999995</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.3740819999999996</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.3942789999999996</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.4145099999999995</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.4347049999999995</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.4549359999999996</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.4751569999999996</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.4953579999999995</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.5155569999999996</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.5357599999999996</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.5559489999999996</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.5761789999999996</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.5964079999999996</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.6166149999999997</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.6368079999999996</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.6570279999999995</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.6772409999999995</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.6974459999999996</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.7176839999999995</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.7379079999999996</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.7581079999999996</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.7783079999999996</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.7985379999999995</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.8187369999999996</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.8389359999999997</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.8591409999999997</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.8793339999999996</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.8995369999999996</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.9197379999999995</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.9399359999999994</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.9601319999999995</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.9803569999999995</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.0005779999999995</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.0208089999999994</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.0410139999999992</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.0612169999999992</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.081424999999999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.101618999999999</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.121824999999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.1420199999999991</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.1622639999999991</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2.1824929999999991</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2.202688999999999</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2.222891999999999</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2.2430899999999991</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2.263288999999999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2.283488999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2.3036879999999988</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2.3238869999999987</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2.3440849999999989</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2.364279999999999</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2.3844759999999989</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2.4047109999999989</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2.4249089999999991</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2.4451109999999989</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2.4653129999999988</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2.4855189999999987</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2.5057189999999987</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2.5259189999999987</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2.5461179999999985</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2.5663149999999986</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2.5865129999999987</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2.6067369999999985</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2.6269559999999985</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2.6471589999999985</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2.6673629999999986</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2.6875619999999985</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2.7077619999999984</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2.7279619999999984</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2.7481639999999983</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2.7683659999999981</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2.788561999999998</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2.8087689999999981</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2.8289739999999979</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2.849180999999998</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2.8694169999999981</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2.8896229999999981</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2.9098199999999981</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2.9300169999999981</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2.9502209999999982</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2.9704219999999983</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2.9906259999999985</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>3.0108289999999984</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>3.0310299999999986</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>3.0512579999999985</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>3.0714889999999984</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>3.0916879999999982</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>3.1118869999999981</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>3.1320909999999982</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>3.1522909999999982</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>3.1724909999999982</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>3.1927129999999981</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>3.2129179999999979</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>3.2331129999999981</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>3.2533209999999979</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>3.2735189999999981</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>3.2937149999999979</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>3.3139379999999981</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>3.3341669999999981</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>3.3543689999999979</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>3.3745669999999981</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>3.3947669999999981</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>3.414991999999998</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>3.4351839999999982</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>3.4554209999999981</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>3.4756189999999982</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>3.4958209999999981</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>3.5160249999999982</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>3.536264999999998</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>3.5564879999999981</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>3.576693999999998</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>3.5968949999999982</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>3.617093999999998</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>3.6372959999999979</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>3.6574919999999977</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>3.6776929999999979</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>3.6979149999999978</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>3.7181179999999978</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>3.7383219999999979</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>3.7585249999999979</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>3.7787209999999978</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>3.7989459999999977</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>3.8191449999999976</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>3.8393409999999975</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>3.8595469999999974</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>3.8797429999999973</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>3.8999499999999974</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>3.9201499999999974</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>3.9403539999999975</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>3.9605509999999975</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>3.9807489999999977</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>4.0009499999999978</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>4.0211439999999978</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>4.0413529999999982</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>4.0615929999999985</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>4.0818209999999988</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>4.1020299999999992</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>4.1222659999999989</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>4.1424869999999991</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>4.1626919999999989</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>4.1829269999999985</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>4.2031279999999986</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>4.2233339999999986</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>4.2435629999999982</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>4.2637949999999982</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>4.283999999999998</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>4.3042179999999979</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>4.3244299999999978</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>4.3446279999999975</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>4.3648679999999977</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>4.3850979999999975</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>4.4053099999999974</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>4.4255119999999977</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>4.4457479999999974</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>4.4659509999999978</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>4.4861569999999977</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>4.5063949999999977</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>4.5265959999999978</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>4.5468009999999977</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>4.5670019999999978</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>4.5872209999999978</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>4.6074489999999981</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>4.6276589999999977</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>4.6478949999999974</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>4.6681269999999975</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>4.6883339999999976</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>4.7085359999999978</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>4.728768999999998</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>4.749000999999998</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>4.7692149999999982</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>4.7894439999999978</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>4.8096439999999978</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>4.8298499999999978</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>4.8500489999999976</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>4.8702589999999972</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>4.8904939999999968</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>4.9106949999999969</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>4.9309239999999965</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>4.9511519999999969</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>4.971352999999997</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>4.9915559999999974</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>5.0117619999999974</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>5.0319889999999976</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>5.0521969999999978</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>5.0724279999999977</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>5.0926369999999981</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>5.1128639999999983</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>5.133093999999998</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>5.1533209999999983</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>5.1735299999999986</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>5.1937339999999983</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>5.2139279999999983</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>5.2341359999999986</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>5.254338999999999</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>5.2745789999999992</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>5.2947799999999994</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>5.3149829999999998</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>5.3351819999999996</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>5.3553839999999999</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>5.3756219999999999</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>5.3958560000000002</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>5.416061</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>5.436261</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>5.456499</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>5.4767320000000002</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>5.4969340000000004</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>5.5171360000000007</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>5.537338000000001</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>5.5575390000000011</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>5.5777390000000011</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>5.5979740000000007</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>5.6181990000000006</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>5.6384320000000008</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>5.6586260000000008</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>5.6788290000000012</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>5.6990330000000009</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>5.7192730000000012</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>5.7395080000000007</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>5.7597090000000009</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>5.7799120000000013</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>5.8001140000000015</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>5.8203150000000017</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>5.8405540000000018</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>5.8607580000000015</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>5.8809560000000012</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>5.9011590000000016</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>5.9213540000000018</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>5.9415550000000019</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>5.9617580000000023</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>5.9819660000000026</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>6.0022020000000023</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>6.0224300000000026</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>6.042639000000003</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>6.0628470000000032</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>6.0830830000000029</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>6.1032880000000027</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>6.1235290000000031</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>6.1437490000000032</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>6.1639750000000033</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>6.1841820000000034</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>6.2043780000000037</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>6.2245790000000039</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>6.2448050000000039</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>6.2650130000000042</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>6.2852250000000041</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>6.3054580000000042</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>6.3256720000000044</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>6.3458840000000043</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>6.3660810000000039</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tmeas10!$D$2:$D$318</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="317"/>
+                <c:pt idx="0">
+                  <c:v>0.35418500000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63077099999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.690276</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91506299999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0814790000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.193821</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.284759</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3452500000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4202189999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4822</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5032239999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.532483</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5072620000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.534273</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.548699</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.559388</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.536594</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.529517</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.518702</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4960329999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.4857469999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.437611</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.3412360000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.3791370000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.3712530000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.3427739999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.30962</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.3042370000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.2783610000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.144236</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.2141770000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.2154389999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.2033860000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.1687669999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.1581790000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.0963210000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.99153000000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.0696870000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.162142</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.092754</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.0852729999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0777920000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.2136100000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.125901</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.1149849999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.1228929999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.184142</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.150636</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.147095</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.1470940000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.1470929999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.149796</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.145322</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.94701400000000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.061682</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.0777000000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.0444199999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.061172</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.06294</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.103494</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.93096100000000004</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.056216</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.058387</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.0793839999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.072611</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.1782570000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.1535679999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.1442939999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.1310770000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.1293059999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.96437899999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.0912010000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.0788169999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.0842229999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.110425</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.123413</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.123815</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.152925</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.1462509999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.1645449999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.175764</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.1626479999999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.165451</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.1709579999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.277439</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.1788149999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.208251</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.188591</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.2199990000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.1932640000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.0543370000000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.1390359999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.1704429999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.157227</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.136531</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.138096</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.1397619999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.0108170000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.075855</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.1467849999999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.101526</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.1176459999999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.1024590000000001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.102357</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.108598</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.1068290000000001</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.123051</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.0908070000000001</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.1049549999999999</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.107658</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.1112960000000001</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.113165</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.098811</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.1112919999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.937419</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.0596669999999999</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.060702</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.071617</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.077224</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.099056</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.099459</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.0447519999999999</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.1199490000000001</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.1124430000000001</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.118153</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.1175200000000001</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.276305</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.1855659999999999</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.1407389999999999</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.1835929999999999</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.185662</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.1020490000000001</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.138992</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.154175</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.159683</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.144495</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.1470959999999999</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.167791</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.012111</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.12208</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.111464</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.1195740000000001</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.122377</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.11707</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.111661</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.069234</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1.115526</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1.1130230000000001</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1.1131230000000001</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1.1393249999999999</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1.1577189999999999</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.154585</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1.1350260000000001</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1.1493770000000001</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1.142301</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1.034151</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.0940859999999999</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1.1092709999999999</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1.1255919999999999</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1.0762929999999999</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.1236189999999999</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.1022909999999999</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.92738100000000001</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1.054937</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1.0640829999999999</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.0723959999999999</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1.087051</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1.0882879999999999</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1.1245719999999999</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.1224730000000001</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1.1165350000000001</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.1266160000000001</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.1142339999999999</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.1277509999999999</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1.132425</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1.147913</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1.1374</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1.174417</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1.1695139999999999</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1.058028</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1.119</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1.1045450000000001</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1.1286750000000001</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1.0982000000000001</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1.1123499999999999</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1.1096440000000001</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1.143856</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1.1388529999999999</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1.13635</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1.0661529999999999</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1.0707500000000001</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1.2415130000000001</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1.1459980000000001</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1.121661</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1.126765</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1.2906550000000001</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1.0582849999999999</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1.1296679999999999</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1.141214</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1.2151479999999999</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1.1791389999999999</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1.1865190000000001</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1.221865</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1.272907</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1.344214</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>1.4277759999999999</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1.5659160000000001</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1.6293629999999999</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>1.723184</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1.8469469999999999</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>1.976623</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>2.098592</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>2.2549760000000001</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>2.420912</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>2.5674920000000001</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>2.7429800000000002</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>2.8134260000000002</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>3.0603720000000001</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>3.2520570000000002</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>3.4278219999999999</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>3.6035870000000001</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>3.7793519999999998</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>3.955117</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>4.1281780000000001</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>4.3057119999999998</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>4.4814769999999999</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>4.4490559999999997</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>4.5528320000000004</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>4.8674980000000003</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>5.0414940000000001</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>5.2172590000000003</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>5.3930239999999996</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>5.5687889999999998</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>5.7445550000000001</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>5.9203200000000002</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>6.0960850000000004</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>6.2394049999999996</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>6.4363960000000002</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>6.6121610000000004</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>6.7392589999999997</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>6.8981950000000003</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>7.0571320000000002</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>7.2674390000000004</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>7.4441389999999998</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>7.6208390000000001</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>7.794835</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>7.9706000000000001</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>8.1463649999999994</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>8.3221299999999996</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>8.4978949999999998</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>8.6736599999999999</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>8.8494250000000001</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>9.0251900000000003</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>9.2009550000000004</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>9.3767200000000006</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>9.5524850000000008</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>9.7255470000000006</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>9.9003770000000006</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>10.080615</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>10.219462999999999</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>10.383075</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>10.546685999999999</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>10.710298</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>10.873908999999999</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>11.072668</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>11.248433</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>11.261974</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>11.546571</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>11.720567000000001</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>11.893628</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>12.073866000000001</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>12.247862</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>12.423627</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>12.599392</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>12.775157</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>12.950922</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>12.991501</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>13.255706</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>13.434175</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>13.608171</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>13.786638999999999</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>13.960635</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>14.1364</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>14.312165</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>14.48793</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>14.663695000000001</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>14.782681999999999</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>14.995592</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>15.171357</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>15.347122000000001</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>15.522887000000001</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>15.698651999999999</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>15.877121000000001</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>16.053822</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>16.230522000000001</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>16.407222999999998</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>16.532553</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>16.691488</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>16.901793999999999</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>17.075790000000001</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>17.251556000000001</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>17.430025000000001</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>17.606725999999998</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>17.775314000000002</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>17.957321</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>18.134022000000002</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>18.145793999999999</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>18.430389000000002</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>18.607089999999999</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>18.783791000000001</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>18.960491000000001</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>19.134487</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>19.312956</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>19.481544</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>19.655439000000001</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>19.837446</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>19.943850000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F608-49EB-87ED-B6A406683A0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tmeas10!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rad/s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tmeas10!$C$2:$C$318</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="317"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0229E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0438000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0635000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0877000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.101079</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.121284</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.141486</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16168399999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18188399999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.202075</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.22228100000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.242478</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.26270300000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.28292400000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.30314800000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.32337600000000005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.34359600000000007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.36382800000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.38402900000000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.40423900000000007</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.42444000000000009</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.44464000000000009</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.46483500000000011</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.48503400000000013</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.50523800000000008</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.52544100000000005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.54564500000000005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.56584000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.58604299999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.60628099999999996</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.62648699999999991</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.64668199999999987</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.66688099999999984</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.68707799999999986</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.70727799999999985</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.72747699999999982</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.74770499999999984</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.76790599999999987</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.78810499999999983</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.8083079999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.82850999999999986</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.84870699999999988</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.8689039999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.88910899999999993</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.90930199999999994</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.92950099999999991</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.94972999999999996</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.96995900000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.99016100000000007</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.010364</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.030567</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.050764</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.0709660000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.0911630000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.1113570000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.1315550000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.151753</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.171953</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.1921809999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.2123789999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.2326039999999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.2528039999999998</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.2730319999999997</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.2932289999999997</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.3134269999999997</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.3336519999999996</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.3538799999999995</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.3740819999999996</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.3942789999999996</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.4145099999999995</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.4347049999999995</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.4549359999999996</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.4751569999999996</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.4953579999999995</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.5155569999999996</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.5357599999999996</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.5559489999999996</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.5761789999999996</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.5964079999999996</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.6166149999999997</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.6368079999999996</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.6570279999999995</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.6772409999999995</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.6974459999999996</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.7176839999999995</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.7379079999999996</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.7581079999999996</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.7783079999999996</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.7985379999999995</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.8187369999999996</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.8389359999999997</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.8591409999999997</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.8793339999999996</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.8995369999999996</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.9197379999999995</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.9399359999999994</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.9601319999999995</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.9803569999999995</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.0005779999999995</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.0208089999999994</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.0410139999999992</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.0612169999999992</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.081424999999999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.101618999999999</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.121824999999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.1420199999999991</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.1622639999999991</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2.1824929999999991</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2.202688999999999</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2.222891999999999</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2.2430899999999991</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2.263288999999999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2.283488999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2.3036879999999988</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2.3238869999999987</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2.3440849999999989</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2.364279999999999</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2.3844759999999989</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2.4047109999999989</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2.4249089999999991</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2.4451109999999989</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2.4653129999999988</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2.4855189999999987</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2.5057189999999987</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2.5259189999999987</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2.5461179999999985</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2.5663149999999986</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2.5865129999999987</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2.6067369999999985</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2.6269559999999985</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2.6471589999999985</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2.6673629999999986</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2.6875619999999985</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2.7077619999999984</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2.7279619999999984</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2.7481639999999983</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2.7683659999999981</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2.788561999999998</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2.8087689999999981</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2.8289739999999979</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2.849180999999998</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2.8694169999999981</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2.8896229999999981</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2.9098199999999981</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2.9300169999999981</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2.9502209999999982</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2.9704219999999983</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2.9906259999999985</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>3.0108289999999984</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>3.0310299999999986</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>3.0512579999999985</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>3.0714889999999984</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>3.0916879999999982</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>3.1118869999999981</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>3.1320909999999982</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>3.1522909999999982</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>3.1724909999999982</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>3.1927129999999981</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>3.2129179999999979</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>3.2331129999999981</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>3.2533209999999979</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>3.2735189999999981</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>3.2937149999999979</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>3.3139379999999981</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>3.3341669999999981</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>3.3543689999999979</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>3.3745669999999981</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>3.3947669999999981</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>3.414991999999998</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>3.4351839999999982</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>3.4554209999999981</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>3.4756189999999982</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>3.4958209999999981</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>3.5160249999999982</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>3.536264999999998</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>3.5564879999999981</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>3.576693999999998</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>3.5968949999999982</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>3.617093999999998</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>3.6372959999999979</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>3.6574919999999977</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>3.6776929999999979</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>3.6979149999999978</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>3.7181179999999978</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>3.7383219999999979</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>3.7585249999999979</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>3.7787209999999978</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>3.7989459999999977</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>3.8191449999999976</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>3.8393409999999975</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>3.8595469999999974</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>3.8797429999999973</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>3.8999499999999974</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>3.9201499999999974</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>3.9403539999999975</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>3.9605509999999975</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>3.9807489999999977</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>4.0009499999999978</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>4.0211439999999978</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>4.0413529999999982</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>4.0615929999999985</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>4.0818209999999988</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>4.1020299999999992</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>4.1222659999999989</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>4.1424869999999991</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>4.1626919999999989</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>4.1829269999999985</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>4.2031279999999986</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>4.2233339999999986</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>4.2435629999999982</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>4.2637949999999982</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>4.283999999999998</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>4.3042179999999979</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>4.3244299999999978</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>4.3446279999999975</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>4.3648679999999977</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>4.3850979999999975</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>4.4053099999999974</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>4.4255119999999977</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>4.4457479999999974</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>4.4659509999999978</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>4.4861569999999977</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>4.5063949999999977</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>4.5265959999999978</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>4.5468009999999977</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>4.5670019999999978</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>4.5872209999999978</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>4.6074489999999981</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>4.6276589999999977</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>4.6478949999999974</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>4.6681269999999975</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>4.6883339999999976</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>4.7085359999999978</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>4.728768999999998</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>4.749000999999998</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>4.7692149999999982</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>4.7894439999999978</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>4.8096439999999978</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>4.8298499999999978</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>4.8500489999999976</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>4.8702589999999972</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>4.8904939999999968</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>4.9106949999999969</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>4.9309239999999965</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>4.9511519999999969</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>4.971352999999997</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>4.9915559999999974</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>5.0117619999999974</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>5.0319889999999976</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>5.0521969999999978</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>5.0724279999999977</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>5.0926369999999981</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>5.1128639999999983</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>5.133093999999998</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>5.1533209999999983</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>5.1735299999999986</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>5.1937339999999983</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>5.2139279999999983</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>5.2341359999999986</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>5.254338999999999</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>5.2745789999999992</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>5.2947799999999994</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>5.3149829999999998</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>5.3351819999999996</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>5.3553839999999999</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>5.3756219999999999</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>5.3958560000000002</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>5.416061</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>5.436261</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>5.456499</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>5.4767320000000002</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>5.4969340000000004</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>5.5171360000000007</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>5.537338000000001</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>5.5575390000000011</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>5.5777390000000011</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>5.5979740000000007</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>5.6181990000000006</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>5.6384320000000008</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>5.6586260000000008</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>5.6788290000000012</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>5.6990330000000009</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>5.7192730000000012</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>5.7395080000000007</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>5.7597090000000009</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>5.7799120000000013</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>5.8001140000000015</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>5.8203150000000017</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>5.8405540000000018</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>5.8607580000000015</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>5.8809560000000012</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>5.9011590000000016</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>5.9213540000000018</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>5.9415550000000019</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>5.9617580000000023</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>5.9819660000000026</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>6.0022020000000023</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>6.0224300000000026</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>6.042639000000003</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>6.0628470000000032</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>6.0830830000000029</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>6.1032880000000027</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>6.1235290000000031</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>6.1437490000000032</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>6.1639750000000033</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>6.1841820000000034</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>6.2043780000000037</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>6.2245790000000039</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>6.2448050000000039</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>6.2650130000000042</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>6.2852250000000041</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>6.3054580000000042</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>6.3256720000000044</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>6.3458840000000043</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>6.3660810000000039</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tmeas10!$E$2:$E$318</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="317"/>
+                <c:pt idx="0">
+                  <c:v>3.068781</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2905000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3280620000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58200399999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.58200399999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.640201</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.75135</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0740970000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6561240000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.2910570000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.5079450000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.1429010000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.6244110000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.5715059999999994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.7831499999999991</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.9947459999999992</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.7884180000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.000086</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.211706</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.582113</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.582113</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.322825999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.751412</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.058274000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10.846629999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11.111185000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11.375742000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11.005369</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.164099999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13.386315</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10.846639</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10.529184000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10.582077999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11.058271</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10.899532000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11.799002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>13.22763</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10.582042</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.5714819999999996</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10.423349999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10.423349999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10.423349999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.6190709999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10.158801</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10.317515999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>10.052967000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.8360310000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.894228</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>10.000086</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10.000086</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10.000068000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9.9471509999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>10.052982</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>13.915441</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10.317526000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9.8942490000000003</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>10.582091999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>10.052985</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>10.000062</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.2064199999999996</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>12.857222999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9.4180469999999996</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>9.5767860000000002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9.3122240000000005</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>9.6826080000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.7249290000000004</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8.9947700000000008</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9.5238689999999995</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>9.9471570000000007</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>10.000086</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>13.227582</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>9.6296789999999994</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>10.000086</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>9.8942519999999998</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>9.4180580000000003</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9.3651289999999996</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9.5767969999999991</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9.1534610000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9.5767969999999991</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9.3651289999999996</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9.3651289999999996</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9.8413350000000008</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9.8413350000000008</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>9.78843</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>7.777825</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>10.476254000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9.7355090000000004</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>10.211709000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9.5238739999999993</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>10.2117</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>12.857222999999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>10.211695000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.5238809999999994</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.9471570000000007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>10.370433999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>10.211719</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>10.105896</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>12.592673</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>10.423374000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8.8889119999999995</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10.158825</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>9.7884419999999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10.158801</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10.105872</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>9.9471329999999991</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10.000038</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>9.6825600000000005</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10.423325999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>10.000086</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>9.9471570000000007</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>9.894228</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>9.894228</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>10.211706</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>9.8942519999999998</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>13.333425999999999</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>9.7884239999999991</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>9.8413350000000008</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>9.6825960000000002</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>9.6826170000000005</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>9.3651420000000005</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>9.5767790000000002</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>10.793716</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>9.0476880000000008</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>9.5238809999999994</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>9.5767740000000003</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>9.7355009999999993</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>6.7196249999999997</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>9.6296669999999995</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>10.634971</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>9.5767740000000003</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>9.6826310000000007</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>11.428642</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>10.211682</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>9.8413470000000007</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>9.7884180000000001</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>10.158801</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>10.052991</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>9.6296789999999994</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>12.804316999999999</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>9.6825600000000005</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>10.000086</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>9.8413470000000007</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>9.8413470000000007</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>10.000068000000001</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>10.10589</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>10.899547</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>9.6825960000000002</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>9.8413360000000001</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>9.8942379999999996</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>9.4180499999999991</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>9.2593189999999996</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>9.5767790000000002</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>10.105872</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>9.7884360000000008</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>10.000062</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>12.116479999999999</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>10.211719</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>9.8413350000000008</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>9.57681</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>10.687900000000001</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>9.523892</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>10.105896</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>13.492179</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>9.7884180000000001</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>9.6825840000000003</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>9.6296789999999994</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>9.4709400000000006</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>9.6296789999999994</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>9.0476749999999999</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>9.4180580000000003</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>9.7354889999999994</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>9.6296789999999994</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>10.000038</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>9.7354889999999994</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>9.7354889999999994</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>9.5238739999999993</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>9.8942460000000008</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>9.2064059999999994</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>9.5767779999999991</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>11.904845</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>10.052979000000001</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>10.317534</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>9.7355250000000009</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>10.423349999999999</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>10.000068000000001</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>10.052991</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>9.3651529999999994</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>9.6825960000000002</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>9.8413350000000008</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>11.269916</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>10.740829</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>7.1429010000000002</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>10.000038</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>10.476303</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>10.211706</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>6.9312569999999996</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>12.539768</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>10.264611</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>9.9471570000000007</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>8.5185770000000005</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>9.7355370000000008</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>9.6825600000000005</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>9.1006280000000004</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>8.4127430000000007</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>7.5661659999999999</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>6.7725179999999998</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>5.1852169999999997</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>5.6085050000000001</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>5.2910389999999996</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>4.4973850000000004</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>3.8624529999999999</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>3.597909</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>2.7513420000000002</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>2.010596</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>1.9047799999999999</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>1.2698499999999999</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>2.910072</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.52910400000000002</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>5.2911E-2</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>5.2911E-2</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>5.2911E-2</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>5.2911E-2</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>5.2911E-2</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.105825</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>5.2911E-2</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>5.2911E-2</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>4.127008</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>4.127008</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>5.2911E-2</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>5.2911E-2</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>5.2911E-2</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>5.2911E-2</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>5.2911E-2</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>5.2911E-2</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>5.2911E-2</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.68784100000000004</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>5.2911E-2</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>5.2911E-2</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>1.005295</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>1.005295</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>1.005295</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>5.2911E-2</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>5.2914000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>5.2911E-2</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>5.2911E-2</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>5.2911E-2</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>5.2911E-2</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>5.2911E-2</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>5.2911E-2</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>5.2911E-2</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>5.2911E-2</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>5.2911E-2</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>0.10582800000000001</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>0.10582800000000001</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0.74074600000000002</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>0.74074600000000002</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>0.74074600000000002</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>0.74074600000000002</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>0.74074600000000002</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>5.2911E-2</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>5.2911E-2</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>3.227541</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>5.2911E-2</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>0.10581599999999999</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>5.2911E-2</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>5.2911E-2</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>5.2911E-2</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>5.2911E-2</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>5.2911E-2</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>2.6984309999999998</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>5.2911E-2</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>5.2911E-2</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>5.2911E-2</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>5.2911E-2</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>5.2911E-2</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>5.2911E-2</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>5.2911E-2</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>1.1640219999999999</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>5.2911E-2</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>5.2911E-2</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>5.2911E-2</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>5.2911E-2</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>5.2911E-2</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>1.005295</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>1.005295</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>5.2911E-2</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>5.2911E-2</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>0.15873899999999999</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>3.2275320000000001</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>5.2911E-2</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>0.15873000000000001</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>0.15873000000000001</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>1.3756660000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F608-49EB-87ED-B6A406683A0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="97109456"/>
+        <c:axId val="97120976"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="97109456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="97120976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="97120976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="97109456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3340,6 +7581,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3373,6 +8130,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>60739</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>146878</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>143773</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>131792</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B941012-6295-1E10-9A58-40BC90E25D09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3700,8 +8493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3127572D-77E2-442F-95C2-8C3B1D11D31E}">
   <dimension ref="A1:N318"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="106" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8614,7 +13407,7 @@
         <v>18196374</v>
       </c>
       <c r="B258">
-        <f t="shared" ref="B258:B321" si="8">(A259-A258)/1000000</f>
+        <f t="shared" ref="B258:B317" si="8">(A259-A258)/1000000</f>
         <v>2.0209000000000001E-2</v>
       </c>
       <c r="C258">
@@ -8656,7 +13449,7 @@
         <v>2.0194E-2</v>
       </c>
       <c r="C260">
-        <f t="shared" ref="C260:C323" si="9">C259+B260</f>
+        <f t="shared" ref="C260:C317" si="9">C259+B260</f>
         <v>5.2139279999999983</v>
       </c>
       <c r="D260">
